--- a/output/table_s2~s5/VSL2.xlsx
+++ b/output/table_s2~s5/VSL2.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>

--- a/output/table_s2~s5/VSL2.xlsx
+++ b/output/table_s2~s5/VSL2.xlsx
@@ -492,10 +492,10 @@
         <v>16674</v>
       </c>
       <c r="G2" t="n">
-        <v>429516</v>
+        <v>429548</v>
       </c>
       <c r="H2" t="n">
-        <v>366746</v>
+        <v>366764</v>
       </c>
     </row>
     <row r="3">
@@ -520,10 +520,10 @@
         <v>1712</v>
       </c>
       <c r="G3" t="n">
-        <v>178477</v>
+        <v>178491</v>
       </c>
       <c r="H3" t="n">
-        <v>82850</v>
+        <v>82851</v>
       </c>
     </row>
     <row r="4">
@@ -548,10 +548,10 @@
         <v>12907</v>
       </c>
       <c r="G4" t="n">
-        <v>281576</v>
+        <v>281602</v>
       </c>
       <c r="H4" t="n">
-        <v>256429</v>
+        <v>256434</v>
       </c>
     </row>
     <row r="5">
@@ -576,10 +576,10 @@
         <v>21646</v>
       </c>
       <c r="G5" t="n">
-        <v>326139</v>
+        <v>326165</v>
       </c>
       <c r="H5" t="n">
-        <v>480375</v>
+        <v>480383</v>
       </c>
     </row>
     <row r="6">
@@ -604,10 +604,10 @@
         <v>4758</v>
       </c>
       <c r="G6" t="n">
-        <v>313872</v>
+        <v>313891</v>
       </c>
       <c r="H6" t="n">
-        <v>100529</v>
+        <v>100530</v>
       </c>
     </row>
     <row r="7">
@@ -632,10 +632,10 @@
         <v>19135</v>
       </c>
       <c r="G7" t="n">
-        <v>374071</v>
+        <v>374088</v>
       </c>
       <c r="H7" t="n">
-        <v>372282</v>
+        <v>372291</v>
       </c>
     </row>
     <row r="8">
@@ -660,7 +660,7 @@
         <v>5137</v>
       </c>
       <c r="G8" t="n">
-        <v>170771</v>
+        <v>170785</v>
       </c>
       <c r="H8" t="n">
         <v>127027</v>
@@ -688,10 +688,10 @@
         <v>5590</v>
       </c>
       <c r="G9" t="n">
-        <v>370183</v>
+        <v>370211</v>
       </c>
       <c r="H9" t="n">
-        <v>122423</v>
+        <v>122427</v>
       </c>
     </row>
     <row r="10">
@@ -716,10 +716,10 @@
         <v>17233</v>
       </c>
       <c r="G10" t="n">
-        <v>290887</v>
+        <v>290910</v>
       </c>
       <c r="H10" t="n">
-        <v>360064</v>
+        <v>360071</v>
       </c>
     </row>
     <row r="11">
@@ -744,10 +744,10 @@
         <v>14459</v>
       </c>
       <c r="G11" t="n">
-        <v>750134</v>
+        <v>750188</v>
       </c>
       <c r="H11" t="n">
-        <v>381205</v>
+        <v>381226</v>
       </c>
     </row>
     <row r="12">
@@ -772,10 +772,10 @@
         <v>4911</v>
       </c>
       <c r="G12" t="n">
-        <v>138356</v>
+        <v>138373</v>
       </c>
       <c r="H12" t="n">
-        <v>103790</v>
+        <v>103791</v>
       </c>
     </row>
     <row r="13">
@@ -800,10 +800,10 @@
         <v>8863</v>
       </c>
       <c r="G13" t="n">
-        <v>237104</v>
+        <v>237124</v>
       </c>
       <c r="H13" t="n">
-        <v>170548</v>
+        <v>170553</v>
       </c>
     </row>
     <row r="14">
@@ -828,10 +828,10 @@
         <v>21186</v>
       </c>
       <c r="G14" t="n">
-        <v>263714</v>
+        <v>263731</v>
       </c>
       <c r="H14" t="n">
-        <v>453455</v>
+        <v>453475</v>
       </c>
     </row>
     <row r="15">
@@ -856,10 +856,10 @@
         <v>13370</v>
       </c>
       <c r="G15" t="n">
-        <v>255120</v>
+        <v>255138</v>
       </c>
       <c r="H15" t="n">
-        <v>286435</v>
+        <v>286441</v>
       </c>
     </row>
     <row r="16">
@@ -884,10 +884,10 @@
         <v>18232</v>
       </c>
       <c r="G16" t="n">
-        <v>314004</v>
+        <v>314028</v>
       </c>
       <c r="H16" t="n">
-        <v>326086</v>
+        <v>326096</v>
       </c>
     </row>
     <row r="17">
@@ -912,10 +912,10 @@
         <v>27161</v>
       </c>
       <c r="G17" t="n">
-        <v>373344</v>
+        <v>373370</v>
       </c>
       <c r="H17" t="n">
-        <v>572532</v>
+        <v>572548</v>
       </c>
     </row>
     <row r="18">
@@ -940,10 +940,10 @@
         <v>11656</v>
       </c>
       <c r="G18" t="n">
-        <v>328403</v>
+        <v>328426</v>
       </c>
       <c r="H18" t="n">
-        <v>279259</v>
+        <v>279268</v>
       </c>
     </row>
     <row r="19">
@@ -968,10 +968,10 @@
         <v>9292</v>
       </c>
       <c r="G19" t="n">
-        <v>473389</v>
+        <v>473431</v>
       </c>
       <c r="H19" t="n">
-        <v>203891</v>
+        <v>203894</v>
       </c>
     </row>
     <row r="20">
@@ -996,7 +996,7 @@
         <v>1430</v>
       </c>
       <c r="G20" t="n">
-        <v>108981</v>
+        <v>108987</v>
       </c>
       <c r="H20" t="n">
         <v>29094</v>
@@ -1024,10 +1024,10 @@
         <v>4812</v>
       </c>
       <c r="G21" t="n">
-        <v>228166</v>
+        <v>228179</v>
       </c>
       <c r="H21" t="n">
-        <v>74362</v>
+        <v>74366</v>
       </c>
     </row>
     <row r="22">
@@ -1052,10 +1052,10 @@
         <v>203770</v>
       </c>
       <c r="G22" t="n">
-        <v>5149382</v>
+        <v>5149530</v>
       </c>
       <c r="H22" t="n">
-        <v>6206207</v>
+        <v>6206666</v>
       </c>
     </row>
     <row r="23">
@@ -1080,10 +1080,10 @@
         <v>443934</v>
       </c>
       <c r="G23" t="n">
-        <v>11355589</v>
+        <v>11356196</v>
       </c>
       <c r="H23" t="n">
-        <v>11355589</v>
+        <v>11356196</v>
       </c>
     </row>
   </sheetData>
